--- a/FirstTask.xlsx
+++ b/FirstTask.xlsx
@@ -1,27 +1,66 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Автобусы" sheetId="1" r:id="rId1"/>
-    <sheet name="Маршруты" sheetId="2" r:id="rId2"/>
-    <sheet name="Контролеры" sheetId="3" r:id="rId3"/>
-    <sheet name="Расписание" sheetId="4" r:id="rId4"/>
+    <sheet r:id="rId1" sheetId="1" name="Автобусы"/>
+    <sheet r:id="rId2" sheetId="2" name="Маршруты"/>
+    <sheet r:id="rId3" sheetId="3" name="Контролеры"/>
+    <sheet r:id="rId4" sheetId="4" name="Расписание"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
+    <t>Расписание</t>
+  </si>
+  <si>
+    <t>Порядковый номер</t>
+  </si>
+  <si>
+    <t>Маршруты</t>
+  </si>
+  <si>
+    <t>Контролеры</t>
+  </si>
+  <si>
     <t>Автобусы</t>
   </si>
   <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>ФИО Контроллера</t>
+  </si>
+  <si>
+    <t>Машкова</t>
+  </si>
+  <si>
+    <t>Леонтиева</t>
+  </si>
+  <si>
+    <t>Магамедова</t>
+  </si>
+  <si>
+    <t>Русланова</t>
+  </si>
+  <si>
+    <t>Ишмуратова</t>
+  </si>
+  <si>
+    <t>Барсукова</t>
+  </si>
+  <si>
+    <t>Маршрут</t>
+  </si>
+  <si>
     <t>ПАЗ - 3010</t>
   </si>
   <si>
@@ -31,65 +70,33 @@
     <t>ПАЗ - 3237</t>
   </si>
   <si>
-    <t>id</t>
+    <t>МАЗ - 203</t>
+  </si>
+  <si>
+    <t>МАЗ - 206</t>
   </si>
   <si>
     <t>МАЗ - 257</t>
-  </si>
-  <si>
-    <t>МАЗ - 203</t>
-  </si>
-  <si>
-    <t>МАЗ - 206</t>
-  </si>
-  <si>
-    <t>Маршрут</t>
-  </si>
-  <si>
-    <t>ФИО Контроллера</t>
-  </si>
-  <si>
-    <t>Машкова</t>
-  </si>
-  <si>
-    <t>Леонтиева</t>
-  </si>
-  <si>
-    <t>Магамедова</t>
-  </si>
-  <si>
-    <t>Русланова</t>
-  </si>
-  <si>
-    <t>Ишмуратова</t>
-  </si>
-  <si>
-    <t>Барсукова</t>
-  </si>
-  <si>
-    <t>Расписание</t>
-  </si>
-  <si>
-    <t>Порядковый номер</t>
-  </si>
-  <si>
-    <t>Маршруты</t>
-  </si>
-  <si>
-    <t>Контролеры</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -100,7 +107,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -110,57 +117,70 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="6">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -193,79 +213,79 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -286,54 +306,53 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="15000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
+                <a:tint val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
+              <a:shade val="9500"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -343,7 +362,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -352,7 +371,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -361,7 +380,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -369,10 +388,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -401,7 +420,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -414,13 +433,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
                 <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -439,71 +457,73 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="11.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="B2" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="B3" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="B4" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>5</v>
+      <c r="B7" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -513,67 +533,72 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
         <v>223</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>445</v>
       </c>
     </row>
@@ -584,79 +609,82 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="1" max="1" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="19.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="1"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="C5" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="C6" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="1"/>
+      <c r="C7" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -665,123 +693,124 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" customWidth="1"/>
+    <col min="1" max="1" style="2" width="18.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="2" width="10.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="2" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="2" width="9.862142857142858" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2">
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>3</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>2</v>
       </c>
-      <c r="D4" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="D4" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>2</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>6</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>4</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>4</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
         <v>1</v>
       </c>
-      <c r="C7" s="2">
-        <v>5</v>
-      </c>
-      <c r="D7" s="2">
+      <c r="C7" s="1">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="20.25">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>6</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>1</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>2</v>
       </c>
     </row>

--- a/FirstTask.xlsx
+++ b/FirstTask.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Автобусы"/>
-    <sheet r:id="rId2" sheetId="2" name="Маршруты"/>
-    <sheet r:id="rId3" sheetId="3" name="Контролеры"/>
-    <sheet r:id="rId4" sheetId="4" name="Расписание"/>
+    <sheet name="Автобусы" sheetId="1" r:id="rId1"/>
+    <sheet name="Маршруты" sheetId="2" r:id="rId2"/>
+    <sheet name="Водители" sheetId="3" r:id="rId3"/>
+    <sheet name="Контролеры" sheetId="4" r:id="rId4"/>
+    <sheet name="Расписание" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>Расписание</t>
   </si>
@@ -34,6 +35,9 @@
     <t>Автобусы</t>
   </si>
   <si>
+    <t>Водители</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
@@ -56,6 +60,27 @@
   </si>
   <si>
     <t>Барсукова</t>
+  </si>
+  <si>
+    <t>ФИО Водителя</t>
+  </si>
+  <si>
+    <t>Мансуров</t>
+  </si>
+  <si>
+    <t>Левкин</t>
+  </si>
+  <si>
+    <t>Щендриков</t>
+  </si>
+  <si>
+    <t>Попов</t>
+  </si>
+  <si>
+    <t>Юдаев</t>
+  </si>
+  <si>
+    <t>Лубко</t>
   </si>
   <si>
     <t>Маршрут</t>
@@ -82,15 +107,20 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -141,32 +171,39 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -177,10 +214,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -218,71 +255,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -310,7 +347,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -333,11 +370,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -346,13 +383,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -362,7 +399,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -371,7 +408,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -380,7 +417,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -388,10 +425,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -466,64 +503,64 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="11.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -542,19 +579,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="2" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -562,7 +598,7 @@
         <v>56</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -570,7 +606,7 @@
         <v>31</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -578,7 +614,7 @@
         <v>64</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row r="5" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -586,7 +622,7 @@
         <v>98</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row r="6" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -594,7 +630,7 @@
         <v>223</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row r="7" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -612,79 +648,73 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="19.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="4"/>
+      <c r="B6" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -696,27 +726,107 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R25" sqref="R25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="2" width="18.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="2" width="10.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="2" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="2" width="9.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+    </row>
+    <row r="2" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -729,8 +839,11 @@
       <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -743,8 +856,11 @@
       <c r="D3" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="E3" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -757,8 +873,11 @@
       <c r="D4" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="E4" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -771,8 +890,11 @@
       <c r="D5" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+      <c r="E5" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -785,8 +907,11 @@
       <c r="D6" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+      <c r="E6" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -799,8 +924,11 @@
       <c r="D7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="20.25">
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -813,10 +941,13 @@
       <c r="D8" s="1">
         <v>2</v>
       </c>
+      <c r="E8" s="1">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/FirstTask.xlsx
+++ b/FirstTask.xlsx
@@ -4,14 +4,10 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505"/>
   </bookViews>
   <sheets>
-    <sheet name="Автобусы" sheetId="1" r:id="rId1"/>
-    <sheet name="Маршруты" sheetId="2" r:id="rId2"/>
-    <sheet name="Водители" sheetId="3" r:id="rId3"/>
-    <sheet name="Контролеры" sheetId="4" r:id="rId4"/>
-    <sheet name="Расписание" sheetId="5" r:id="rId5"/>
+    <sheet name="Расписание" sheetId="5" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -137,7 +133,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -161,17 +157,38 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <right/>
-      <top/>
-      <bottom/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -182,14 +199,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -497,334 +519,29 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="4" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
-        <v>445</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15" style="6" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R25" sqref="R25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" style="4" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:E8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
     <col min="1" max="1" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" style="2" customWidth="1"/>
     <col min="3" max="3" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -943,6 +660,202 @@
       </c>
       <c r="E8" s="1">
         <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>1</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>2</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2</v>
+      </c>
+      <c r="E13" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>3</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="1">
+        <v>3</v>
+      </c>
+      <c r="E14" s="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>4</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="1">
+        <v>4</v>
+      </c>
+      <c r="E15" s="1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>5</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="1">
+        <v>5</v>
+      </c>
+      <c r="E16" s="1">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>6</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="1">
+        <v>6</v>
+      </c>
+      <c r="E17" s="1">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
+        <v>1</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
+        <v>2</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="1">
+        <v>2</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
+        <v>3</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="1">
+        <v>3</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
+        <v>4</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="1">
+        <v>4</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="9">
+        <v>5</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="1">
+        <v>5</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
+        <v>6</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="1">
+        <v>6</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
